--- a/rank_analysis/3-4-analysis.xlsx
+++ b/rank_analysis/3-4-analysis.xlsx
@@ -388,7 +388,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>357.6</t>
+          <t>172.2</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>314.4</t>
+          <t>188.7</t>
         </is>
       </c>
     </row>
@@ -417,12 +417,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>315.0</t>
+          <t>176.42</t>
         </is>
       </c>
     </row>
@@ -434,12 +434,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>374.37</t>
+          <t>195.86</t>
         </is>
       </c>
     </row>
@@ -451,12 +451,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>459.566</t>
+          <t>196.348</t>
         </is>
       </c>
     </row>
@@ -468,12 +468,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>713.524</t>
+          <t>177.309</t>
         </is>
       </c>
     </row>
